--- a/요구사항/메뉴상세설계도.xlsx
+++ b/요구사항/메뉴상세설계도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitProject\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE1F4C-B773-4049-ACF1-0A1D83F64F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AF1700-98D4-488B-B256-7BD2ED3BD60C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{044FC84B-8FDF-4A36-82CF-1AF2E1B7A3AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="160">
   <si>
     <t>2nd depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -282,170 +282,371 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>lms/teacher/attendance/detail.bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lms/teacher/student.bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lms/teacher/student/detail.bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lms/teacher/student/add.bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lms/teacher/bbs.bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitjeju/intro/intro.bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력폼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메인화면이고 중앙에 광고와 강좌정보가 있다. 중앙 사이드바로 로그인할 수 있는 부분이 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학원소개, 연혁, 강사소개, 지도가 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업현황 자료가 올라와있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">취업공고 자료가 올라와있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자주묻는질문과 답이 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개설된 강좌목록이 나오고 수강신청을 할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시험성적을 확인할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LMS접속하면 고정메뉴와 하단소개는 그대로 있고 중앙부분에 LMS메뉴로 바뀐다. 첫화면은 첫메뉴로 설정되어 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">출결상황을 확인할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강좌명, 강사, 강의실, 교육기간 등 정보를 확인할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">행정팀이 개설한 강좌 목록을 볼 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강좌의 상세정보를 볼 수 있고 모집공고를 업로드할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강신청한 학생들을 확인하고 수강등록을 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitjeju/signup.bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage.bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">개인정보 확인 및 정보수정을 할 수 있고 탈퇴를 할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원가입을 할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수강생 정보를 확인 할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강사와 교육기간 등을 정해 강좌를 개설할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개설한 강좌를 확인할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원목록이 나타난다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 회원정보가 나타나고 수정, 삭제가 가능하다. 직원등록 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생 성적과 출석정보, 개인정보를 확인할 수 있고 수강생을 삭제할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수강생 정보를 확인할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생 목록이 반별로 나온다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수강생 출서정보를 입력할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수강생 정보가 나타난다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">담당강좌명과 정보가 나타난다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수강생의 시험성적을 입력할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수업자료 등을 업로드 할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트캠프 제주 웹사이트 구성도 (SiteMap)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.staff.student.model                   com.bitjeju.lms.staff.student.controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.staff</t>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.staff.lecture.model               com.bitjeju.lms.staff.lecture.controller</t>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.staff.account.model              com.bitjeju.lms.staff.account.controller</t>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.teacher</t>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.teacher.attendance.model                com.bitjeju.lms.teacher.attendance.controller</t>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.teacher.student.model           com.bitjeju.lms.teacher.student.controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.bitjeju.signup.model         com.bitjeju.signup.controller      </t>
+  </si>
+  <si>
+    <t>com.bitjeju.mypage.model     com.bitjeju.mypage.controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.sales</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.sales.recruit.model                             com.bitjeju.lms.sales.recruit.controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.sales.assign.model                     com.bitjeju.lms.sales.assign.controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.stu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.stu.result.model                        com.bitjeju.lms.stu.result.controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.stu.attendance.model                com.bitjeju.lms.stu.attendance.controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.lms.stu.info.model                           com.bitjeju.lms.stu.info.controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.edu.model                                    com.bitjeju.edu.controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.customer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.job</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bitjeju.intro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.jsp</t>
+  </si>
+  <si>
+    <t>intro.jsp</t>
+  </si>
+  <si>
+    <t>Dto, Dao, Controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job.jsp</t>
+  </si>
+  <si>
+    <t>customer.jsp</t>
+  </si>
+  <si>
+    <t>edu.jsp</t>
+  </si>
+  <si>
+    <t>stuResultList.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuAttendacenList.jsp     </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuInfoList.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stu.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">salesRecruitList.jsp    salesRecruitAdd.jsp           </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesRecruitDetail.jsp  salesRecruitEdit.jsp salesRecruitDelete.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesAssignList.jsp   salesAssignAdd.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">salesAssignDetail.jsp   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">staffLectureList.jsp   staffLectureAdd.jsp     </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staffLectureDetail.jsp  staffLectureEdit.jsp   staffLectureDelete.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staffAccountList.jsp   staffAccountAdd.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staffAccountDetail.jsp  staffAccountEdit.jsp     staffAccountDelete.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staffStudentList.jsp     staffStudentAdd.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staffStudentDetail.jsp  staffStudentEdit.jsp   staffStuentDelete.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>lms/teacher/attendance.bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lms/teacher/attendance/detail.bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lms/teacher/student.bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lms/teacher/student/detail.bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lms/teacher/student/add.bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lms/teacher/bbs.bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitjeju/intro/intro.bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨텐츠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력폼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">메인화면이고 중앙에 광고와 강좌정보가 있다. 중앙 사이드바로 로그인할 수 있는 부분이 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">학원소개, 연혁, 강사소개, 지도가 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>취업현황 자료가 올라와있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">취업공고 자료가 올라와있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자주묻는질문과 답이 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">개설된 강좌목록이 나오고 수강신청을 할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">시험성적을 확인할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS접속하면 고정메뉴와 하단소개는 그대로 있고 중앙부분에 LMS메뉴로 바뀐다. 첫화면은 첫메뉴로 설정되어 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">출결상황을 확인할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">강좌명, 강사, 강의실, 교육기간 등 정보를 확인할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">행정팀이 개설한 강좌 목록을 볼 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">강좌의 상세정보를 볼 수 있고 모집공고를 업로드할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강신청한 학생들을 확인하고 수강등록을 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitjeju/signup.bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mypage.bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">개인정보 확인 및 정보수정을 할 수 있고 탈퇴를 할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회원가입을 할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수강생 정보를 확인 할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">강사와 교육기간 등을 정해 강좌를 개설할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">개설한 강좌를 확인할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회원목록이 나타난다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 회원정보가 나타나고 수정, 삭제가 가능하다. 직원등록 가능하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강생 성적과 출석정보, 개인정보를 확인할 수 있고 수강생을 삭제할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수강생 정보를 확인할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강생 목록이 반별로 나온다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수강생 출서정보를 입력할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수강생 정보가 나타난다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">담당강좌명과 정보가 나타난다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수강생의 시험성적을 입력할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수업자료 등을 업로드 할 수 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비트캠프 제주 웹사이트 구성도 (SiteMap)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacherAttendanceList.jsp    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacherAttendanceCheck.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacherStudentList.jsp           </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacherStudentDetail.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">teacherStudentAdd.jsp         teacherStudentEdit.jsp          </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">signUp.jsp                           signUpAdd.jsp                          </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypageDetail.jsp                 mypageEdit.jsp                   mypageDelete.jsp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +654,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +679,18 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -492,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -515,6 +728,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +799,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -864,31 +1152,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0212EB4E-24F2-4561-8D7D-459A3F3362AC}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="35.125" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
-    <col min="6" max="7" width="8.25" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="2" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="42.25" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="9" max="9" width="36.25" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="14" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -898,821 +1194,1199 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="N3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="J12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="L14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="L20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="L23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="J24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="J27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D29" s="4"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="4"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="D31" s="4"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="4"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D33" s="4"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="L34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N38" s="6"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
